--- a/data/outputs/management_altmetric/7.xlsx
+++ b/data/outputs/management_altmetric/7.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE95"/>
+  <dimension ref="A1:CF95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1041,6 +1046,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1301,6 +1309,9 @@
       </c>
       <c r="CE3" t="n">
         <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="4">
@@ -1545,6 +1556,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1805,6 +1819,9 @@
       </c>
       <c r="CE5" t="n">
         <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2055,6 +2072,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2308,6 +2328,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2569,6 +2592,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2824,6 +2850,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3081,6 +3110,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>15.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3332,6 +3364,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3581,6 +3616,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3826,6 +3864,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4085,6 +4126,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4342,6 +4386,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4591,6 +4638,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4836,6 +4886,9 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5081,6 +5134,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5334,6 +5390,9 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5581,6 +5640,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5838,6 +5900,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>52.7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6091,6 +6156,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6352,6 +6420,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6603,6 +6674,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6870,6 +6944,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7127,6 +7204,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7380,6 +7460,9 @@
         <v>0</v>
       </c>
       <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7625,6 +7708,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7862,6 +7948,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>5.08</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8111,6 +8200,9 @@
       <c r="CE30" t="n">
         <v>1</v>
       </c>
+      <c r="CF30" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8366,6 +8458,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8619,6 +8714,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8870,6 +8968,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9121,6 +9222,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9376,6 +9480,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9637,6 +9744,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>10.85</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9890,6 +10000,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10145,6 +10258,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10397,6 +10513,9 @@
       </c>
       <c r="CE39" t="n">
         <v>0</v>
+      </c>
+      <c r="CF39" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="40">
@@ -10641,6 +10760,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10884,6 +11006,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11129,6 +11254,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11376,6 +11504,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11629,6 +11760,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11881,6 +12015,9 @@
       </c>
       <c r="CE45" t="n">
         <v>0</v>
+      </c>
+      <c r="CF45" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="46">
@@ -12125,6 +12262,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12378,6 +12518,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12633,6 +12776,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12890,6 +13036,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13139,6 +13288,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13372,6 +13524,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13617,6 +13772,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13869,6 +14027,9 @@
       </c>
       <c r="CE53" t="n">
         <v>0</v>
+      </c>
+      <c r="CF53" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="54">
@@ -14115,6 +14276,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14368,6 +14532,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14615,6 +14782,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14867,6 +15037,9 @@
       </c>
       <c r="CE57" t="n">
         <v>0</v>
+      </c>
+      <c r="CF57" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="58">
@@ -15111,6 +15284,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15355,6 +15531,9 @@
       </c>
       <c r="CE59" t="n">
         <v>0</v>
+      </c>
+      <c r="CF59" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -15595,6 +15774,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15860,6 +16042,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16115,6 +16300,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16371,6 +16559,9 @@
       </c>
       <c r="CE63" t="n">
         <v>0</v>
+      </c>
+      <c r="CF63" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="64">
@@ -16615,6 +16806,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16870,6 +17064,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17119,6 +17316,9 @@
         <v>0</v>
       </c>
       <c r="CE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17364,6 +17564,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17619,6 +17822,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17870,6 +18076,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18115,6 +18324,9 @@
         <v>0</v>
       </c>
       <c r="CE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18348,6 +18560,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18591,6 +18806,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18836,6 +19054,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19087,6 +19308,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19336,6 +19560,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19585,6 +19812,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>5.75</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19851,6 +20081,9 @@
       </c>
       <c r="CE77" t="n">
         <v>0</v>
+      </c>
+      <c r="CF77" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row r="78">
@@ -20097,6 +20330,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20348,6 +20584,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20601,6 +20840,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>13.55</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20853,6 +21095,9 @@
       </c>
       <c r="CE81" t="n">
         <v>0</v>
+      </c>
+      <c r="CF81" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="82">
@@ -21098,6 +21343,9 @@
       </c>
       <c r="CE82" t="n">
         <v>0</v>
+      </c>
+      <c r="CF82" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="83">
@@ -21330,6 +21578,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21575,6 +21826,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21838,6 +22092,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>4.75</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -22089,6 +22346,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22350,6 +22610,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22613,6 +22876,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22864,6 +23130,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -23123,6 +23392,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23376,6 +23648,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>134.25</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23625,6 +23900,9 @@
         <v>0</v>
       </c>
       <c r="CE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23872,6 +24150,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -24133,6 +24414,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24380,6 +24664,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
